--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
   <si>
     <t>Step No</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1073,9 +1076,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -1119,16 +1122,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,9 +1144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1175,7 +1178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,24 +1192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,7 +1208,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,14 +1246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,7 +1260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,7 +1293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,73 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,25 +1329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,7 +1353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,13 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1413,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,19 +1461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,17 +1537,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,11 +1557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,6 +1587,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1593,17 +1607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,13 +1637,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,130 +1655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2232,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4009,7 +4012,7 @@
         <v>165</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -4026,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -4044,7 +4047,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -4062,14 +4065,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H89" s="16"/>
     </row>
@@ -4084,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -4102,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -4120,14 +4123,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -4488,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4710,16 +4713,16 @@
         <v>20</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H124" s="8"/>
     </row>
@@ -4750,10 +4753,10 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -4768,14 +4771,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H127" s="16"/>
     </row>
@@ -4790,14 +4793,14 @@
         <v>20</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H128" s="8"/>
     </row>
@@ -4812,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -4830,7 +4833,7 @@
         <v>20</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -4848,16 +4851,16 @@
         <v>20</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H131" s="16"/>
     </row>
@@ -4888,10 +4891,10 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H133" s="16"/>
     </row>
@@ -4906,16 +4909,16 @@
         <v>15</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -4930,16 +4933,16 @@
         <v>15</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H135" s="16"/>
     </row>
@@ -5158,14 +5161,14 @@
         <v>20</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -5182,10 +5185,10 @@
         <v>2</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H148" s="16"/>
     </row>
@@ -5194,20 +5197,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H149" s="8"/>
     </row>
@@ -5238,16 +5241,16 @@
         <v>15</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H151" s="8"/>
     </row>
@@ -5262,16 +5265,16 @@
         <v>20</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H152" s="16"/>
     </row>
@@ -5280,22 +5283,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5310,14 +5313,14 @@
         <v>15</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H154" s="16"/>
     </row>
@@ -5348,14 +5351,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H156" s="16"/>
     </row>
@@ -5448,14 +5451,14 @@
         <v>20</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H161" s="18"/>
     </row>
@@ -5470,14 +5473,14 @@
         <v>15</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H162" s="21"/>
     </row>
@@ -5508,14 +5511,14 @@
         <v>20</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H164" s="21"/>
     </row>
@@ -5530,16 +5533,16 @@
         <v>15</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H165" s="18"/>
     </row>
@@ -5554,16 +5557,16 @@
         <v>20</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H166" s="21"/>
     </row>
@@ -5572,22 +5575,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H167" s="18"/>
     </row>
@@ -5606,10 +5609,10 @@
       </c>
       <c r="E168" s="21"/>
       <c r="F168" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H168" s="21"/>
     </row>
@@ -5638,7 +5641,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
@@ -5678,14 +5681,14 @@
         <v>15</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E172" s="21"/>
       <c r="F172" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H172" s="21"/>
     </row>
@@ -5716,14 +5719,14 @@
         <v>20</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E174" s="11"/>
       <c r="F174" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H174" s="11"/>
     </row>
@@ -5800,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5808,20 +5811,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5832,20 +5835,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5853,47 +5856,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5903,12 +5906,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5918,55 +5921,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5976,152 +5979,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6131,209 +6134,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6343,12 +6346,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
   <si>
     <t>Step No</t>
   </si>
@@ -598,45 +598,6 @@
   </si>
   <si>
     <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>AGREE_SUBMIT_BUTTON</t>
@@ -1122,21 +1083,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1144,9 +1090,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,11 +1120,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1176,24 +1167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,15 +1190,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,31 +1220,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1293,7 +1254,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,19 +1368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,25 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,97 +1428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,20 +1500,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,45 +1533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,6 +1555,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1637,7 +1598,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,130 +1616,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2233,10 +2194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A131" sqref="$A131:$XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4840,921 +4801,815 @@
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" customFormat="1" spans="1:8">
       <c r="A131" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>146</v>
+        <v>11</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11">
+        <v>4</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H131" s="16"/>
-    </row>
-    <row r="132" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" customFormat="1" spans="1:8">
       <c r="A132" s="10">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="H132" s="9"/>
+    </row>
+    <row r="133" customFormat="1" spans="1:8">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H133" s="16"/>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="E133" s="11">
+        <v>4</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+    </row>
+    <row r="134" customFormat="1" spans="1:8">
       <c r="A134" s="10">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" customFormat="1" spans="1:8">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H135" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11">
+        <v>5</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" customFormat="1" spans="1:8">
       <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11">
-        <v>4</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" customFormat="1" spans="1:8">
       <c r="A137" s="10">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
+        <v>3</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138" customFormat="1" spans="1:8">
       <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11">
-        <v>4</v>
-      </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H138" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="139" customFormat="1" spans="1:8">
       <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="B139" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11">
+        <v>4</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+    </row>
+    <row r="140" s="4" customFormat="1" spans="1:8">
+      <c r="A140" s="7">
+        <v>144</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="A141" s="10">
+        <v>145</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
+        <v>4</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" s="4" customFormat="1" spans="1:8">
+      <c r="A142" s="10">
+        <v>146</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-    </row>
-    <row r="140" customFormat="1" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="11" t="s">
+      <c r="D142" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" s="4" customFormat="1" spans="1:8">
+      <c r="A143" s="7">
+        <v>147</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11">
-        <v>5</v>
-      </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-    </row>
-    <row r="141" customFormat="1" spans="1:8">
-      <c r="A141" s="10">
-        <v>140</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H141" s="9"/>
-    </row>
-    <row r="142" customFormat="1" spans="1:8">
-      <c r="A142" s="10">
-        <v>141</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11">
-        <v>3</v>
-      </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-    </row>
-    <row r="143" customFormat="1" spans="1:8">
-      <c r="A143" s="7">
-        <v>142</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H143" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:8">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11">
+        <v>2</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="10">
-        <v>143</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11">
-        <v>4</v>
-      </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
       <c r="A145" s="7">
-        <v>144</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H145" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11">
+        <v>2</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" s="4" customFormat="1" spans="1:8">
       <c r="A146" s="10">
-        <v>145</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11">
-        <v>4</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:8">
       <c r="A147" s="10">
-        <v>146</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9" t="s">
+      <c r="E147" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="F147" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H147" s="8"/>
+      <c r="G147" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H147" s="16"/>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:8">
       <c r="A148" s="7">
-        <v>147</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11">
-        <v>2</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G148" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H148" s="16"/>
+      <c r="C148" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:8">
       <c r="A149" s="10">
-        <v>148</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H149" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H149" s="16"/>
     </row>
     <row r="150" s="4" customFormat="1" spans="1:8">
       <c r="A150" s="7">
-        <v>149</v>
-      </c>
-      <c r="B150" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11">
-        <v>2</v>
-      </c>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="16"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="9">
+        <v>4</v>
+      </c>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" s="4" customFormat="1" spans="1:8">
       <c r="A151" s="10">
-        <v>150</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G151" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H151" s="8"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H151" s="16"/>
     </row>
     <row r="152" s="4" customFormat="1" spans="1:8">
       <c r="A152" s="10">
-        <v>151</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H152" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9">
+        <v>5</v>
+      </c>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" s="4" customFormat="1" spans="1:8">
       <c r="A153" s="7">
-        <v>152</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H153" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="154" s="4" customFormat="1" spans="1:8">
       <c r="A154" s="10">
-        <v>153</v>
-      </c>
-      <c r="B154" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H154" s="16"/>
+      <c r="C154" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" s="19"/>
     </row>
     <row r="155" s="4" customFormat="1" spans="1:8">
       <c r="A155" s="7">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="9"/>
-      <c r="D155" s="12"/>
+      <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" s="4" customFormat="1" spans="1:8">
       <c r="A156" s="10">
-        <v>155</v>
-      </c>
-      <c r="B156" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H156" s="16"/>
+      <c r="D156" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H156" s="18"/>
     </row>
     <row r="157" s="4" customFormat="1" spans="1:8">
       <c r="A157" s="10">
-        <v>156</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>5</v>
-      </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="H157" s="21"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
       <c r="A158" s="7">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158" s="19">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18">
+        <v>20</v>
+      </c>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:8">
       <c r="A159" s="10">
-        <v>158</v>
-      </c>
-      <c r="B159" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H159" s="19"/>
+      <c r="D159" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
       <c r="A160" s="7">
-        <v>159</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9">
-        <v>5</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H160" s="18"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
       <c r="A161" s="10">
-        <v>160</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G161" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="H161" s="18"/>
+      <c r="D161" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
       <c r="A162" s="10">
-        <v>161</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="H162" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:8">
       <c r="A163" s="7">
-        <v>162</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18">
+        <v>167</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="D163" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" s="4" customFormat="1" spans="1:8">
       <c r="A164" s="10">
-        <v>163</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18">
         <v>20</v>
       </c>
-      <c r="D164" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="H164" s="21"/>
+      <c r="F164" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="18"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
       <c r="A165" s="7">
-        <v>164</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H165" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
     </row>
     <row r="166" s="4" customFormat="1" spans="1:8">
       <c r="A166" s="10">
-        <v>165</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H166" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18">
+        <v>10</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="18"/>
     </row>
     <row r="167" s="4" customFormat="1" spans="1:8">
       <c r="A167" s="10">
-        <v>166</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F167" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G167" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H167" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:8">
       <c r="A168" s="7">
-        <v>167</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G168" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H168" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18">
+        <v>5</v>
+      </c>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
     <row r="169" s="4" customFormat="1" spans="1:8">
       <c r="A169" s="10">
-        <v>168</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18">
+        <v>173</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F169" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="18"/>
+      <c r="D169" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
       <c r="A170" s="7">
-        <v>169</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-    </row>
-    <row r="171" s="4" customFormat="1" spans="1:8">
-      <c r="A171" s="10">
-        <v>170</v>
-      </c>
-      <c r="B171" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18">
-        <v>10</v>
-      </c>
-      <c r="F171" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" s="18"/>
-    </row>
-    <row r="172" s="4" customFormat="1" spans="1:8">
-      <c r="A172" s="10">
-        <v>171</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H172" s="21"/>
-    </row>
-    <row r="173" s="4" customFormat="1" spans="1:8">
-      <c r="A173" s="7">
-        <v>172</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18">
-        <v>5</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-    </row>
-    <row r="174" s="4" customFormat="1" spans="1:8">
-      <c r="A174" s="10">
-        <v>173</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H174" s="11"/>
-    </row>
-    <row r="175" s="4" customFormat="1" spans="1:8">
-      <c r="A175" s="7">
-        <v>174</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9">
         <v>4</v>
       </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B56 B57 B58 B59 B60 B61 B66 B67 B77 B78 B82 B85 B86 B87 B88 B89 B92 B102 B112 B131 B132 B150 B151 B152 B153 B154 B155 B156 B157 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B62:B65 B79:B81 B83:B84 B90:B91 B122:B128 B129:B130 B133:B135 B145:B146 B147:B148 B174:B175 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B37 B46 B56 B57 B58 B59 B60 B61 B66 B67 B77 B78 B82 B85 B86 B87 B88 B89 B92 B102 B112 B145 B146 B147 B148 B149 B150 B151 B152 B14:B20 B21:B29 B31:B36 B38:B39 B40:B45 B62:B65 B79:B81 B83:B84 B90:B91 B122:B128 B129:B130 B140:B141 B142:B143 B169:B170 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C47 C68 C93 C103 C113 C136 C158 B159 C159 B160 C160 B4:B12 B47:B55 B68:B76 B93:B101 B103:B111 B113:B121 B136:B144 C7:C9 C48:C51 C52:C55 C69:C72 C73:C76 C94:C97 C98:C101 C104:C107 C108:C111 C114:C117 C118:C121 C137:C140 C141:C144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C47 C68 C93 C103 C113 C131 C153 B154 C154 B155 C155 B4:B12 B47:B55 B68:B76 B93:B101 B103:B111 B113:B121 B131:B139 C7:C9 C48:C51 C52:C55 C69:C72 C73:C76 C94:C97 C98:C101 C104:C107 C108:C111 C114:C117 C118:C121 C132:C135 C136:C139">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
@@ -5766,13 +5621,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C102">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158 B161:B173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B153 B156:B168">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B171:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C176:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C171:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -5803,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5811,20 +5666,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5835,20 +5690,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5856,47 +5711,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5906,12 +5761,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5921,55 +5776,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5979,152 +5834,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6134,209 +5989,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6346,12 +6201,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -1037,12 +1037,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,22 +1068,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1098,7 +1082,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,7 +1097,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,8 +1111,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,9 +1143,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,24 +1173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,25 +1189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1211,23 +1204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,13 +1232,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1262,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,127 +1406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,38 +1416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1487,26 +1465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1522,17 +1480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,11 +1504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,6 +1536,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1586,25 +1562,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1616,134 +1583,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1751,22 +1718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2196,8 +2149,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A131" sqref="$A131:$XFD135"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2243,764 +2196,764 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>1000</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>10001</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>5</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="8"/>
@@ -3009,2597 +2962,2597 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>9876543210</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8">
         <v>2</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8">
         <v>4</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="10">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
         <v>5</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="10">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8">
         <v>3</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="10">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8">
         <v>4</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="10">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="16"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="10">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>4</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8">
+        <v>10</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="16"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="10">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8">
+        <v>10</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="16"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="10">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>4</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8">
+        <v>10</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="10">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H62" s="16"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="10">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="16"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H66" s="16"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="10">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>4</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="10">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <v>4</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7">
+        <v>5</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="10">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="10">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7">
         <v>5</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="10">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7">
         <v>3</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="10">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>4</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7">
+        <v>5</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="10">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
+      <c r="E77" s="8"/>
+      <c r="F77" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H77" s="16"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9">
-        <v>4</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7">
+        <v>10</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="10">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H79" s="16"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="9">
-        <v>4</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>5</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="10">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H81" s="16"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="10">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H83" s="16"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="10">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H85" s="16"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="8"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="10">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="16"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="8"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="10">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H89" s="16"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="10">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="16"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="10">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
         <v>4</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="10">
-        <v>93</v>
-      </c>
-      <c r="B94" s="9" t="s">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="7">
-        <v>94</v>
-      </c>
-      <c r="B95" s="11" t="s">
+      <c r="C96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>4</v>
-      </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="10">
-        <v>95</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="10">
-        <v>96</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
         <v>5</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="10">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>3</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
+        <v>5</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="10">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>4</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
+        <v>5</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="10">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H102" s="16"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>4</v>
-      </c>
-      <c r="F103" s="11" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
+        <v>10</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="11"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="10">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11">
-        <v>4</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8">
+        <v>5</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="10">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="10">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8">
         <v>5</v>
       </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9" t="s">
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H108" s="9"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="10">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11">
-        <v>3</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8">
+        <v>4</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H110" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="10">
+      <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8">
+        <v>5</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8">
         <v>4</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="10">
-        <v>111</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="F113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8">
+        <v>4</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="16"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>112</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="D116" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11">
-        <v>4</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="10">
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="7">
-        <v>114</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11">
-        <v>4</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="10">
-        <v>115</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="10">
-        <v>116</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8">
         <v>5</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9" t="s">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H118" s="9"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="10">
+      <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
         <v>3</v>
       </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="10">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8">
         <v>4</v>
       </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="10">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9" t="s">
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11">
-        <v>4</v>
-      </c>
-      <c r="F123" s="11" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
+        <v>10</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="16"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="10">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8">
         <v>5</v>
       </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="16"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="10">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9" t="s">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H126" s="8"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="10">
+      <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11" t="s">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H127" s="16"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9" t="s">
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="10">
+      <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="16"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="8"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" customFormat="1" spans="1:8">
-      <c r="A131" s="10">
+      <c r="A131" s="8">
         <v>135</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
         <v>4</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="11"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" customFormat="1" spans="1:8">
-      <c r="A132" s="10">
+      <c r="A132" s="7">
         <v>136</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" customFormat="1" spans="1:8">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>137</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8">
+        <v>5</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" customFormat="1" spans="1:8">
+      <c r="A134" s="7">
+        <v>138</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" customFormat="1" spans="1:8">
+      <c r="A135" s="8">
+        <v>139</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
+        <v>5</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" customFormat="1" spans="1:8">
+      <c r="A136" s="7">
+        <v>140</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" customFormat="1" spans="1:8">
+      <c r="A137" s="8">
+        <v>141</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8">
         <v>4</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-    </row>
-    <row r="134" customFormat="1" spans="1:8">
-      <c r="A134" s="10">
-        <v>138</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="135" customFormat="1" spans="1:8">
-      <c r="A135" s="7">
-        <v>139</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11">
-        <v>5</v>
-      </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-    </row>
-    <row r="136" customFormat="1" spans="1:8">
-      <c r="A136" s="10">
-        <v>140</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" customFormat="1" spans="1:8">
-      <c r="A137" s="10">
-        <v>141</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11">
-        <v>3</v>
-      </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" customFormat="1" spans="1:8">
       <c r="A138" s="7">
         <v>142</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:8">
-      <c r="A139" s="10">
+      <c r="A139" s="8">
         <v>143</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8">
         <v>4</v>
       </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" s="4" customFormat="1" spans="1:8">
       <c r="A140" s="7">
         <v>144</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H140" s="8"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:8">
-      <c r="A141" s="10">
+      <c r="A141" s="8">
         <v>145</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11">
-        <v>4</v>
-      </c>
-      <c r="F141" s="11" t="s">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8">
+        <v>10</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G141" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="16"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" s="4" customFormat="1" spans="1:8">
-      <c r="A142" s="10">
+      <c r="A142" s="7">
         <v>146</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9" t="s">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H142" s="8"/>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:8">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>147</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8">
         <v>2</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G143" s="11" t="s">
+      <c r="G143" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H143" s="16"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" s="4" customFormat="1" spans="1:8">
-      <c r="A144" s="10">
+      <c r="A144" s="7">
         <v>148</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
+      <c r="E144" s="7"/>
+      <c r="F144" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H144" s="8"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>149</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11">
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8">
         <v>2</v>
       </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="16"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" s="4" customFormat="1" spans="1:8">
-      <c r="A146" s="10">
+      <c r="A146" s="7">
         <v>150</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G146" s="9" t="s">
+      <c r="G146" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H146" s="8"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="10">
+      <c r="A147" s="8">
         <v>151</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G147" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H147" s="16"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:8">
       <c r="A148" s="7">
         <v>152</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H148" s="8"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:8">
-      <c r="A149" s="10">
+      <c r="A149" s="8">
         <v>153</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
+      <c r="E149" s="8"/>
+      <c r="F149" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G149" s="11" t="s">
+      <c r="G149" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H149" s="16"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" s="4" customFormat="1" spans="1:8">
       <c r="A150" s="7">
         <v>154</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="9">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7">
         <v>4</v>
       </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="8"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" s="4" customFormat="1" spans="1:8">
-      <c r="A151" s="10">
+      <c r="A151" s="8">
         <v>155</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11" t="s">
+      <c r="E151" s="8"/>
+      <c r="F151" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="H151" s="16"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" s="4" customFormat="1" spans="1:8">
-      <c r="A152" s="10">
+      <c r="A152" s="7">
         <v>156</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
         <v>5</v>
       </c>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="8"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" s="4" customFormat="1" spans="1:8">
-      <c r="A153" s="7">
+      <c r="A153" s="8">
         <v>157</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11" t="s">
+      <c r="E153" s="8"/>
+      <c r="F153" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="19">
+      <c r="H153" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="154" s="4" customFormat="1" spans="1:8">
-      <c r="A154" s="10">
+      <c r="A154" s="7">
         <v>158</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G154" s="9" t="s">
+      <c r="G154" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H154" s="19"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" s="4" customFormat="1" spans="1:8">
-      <c r="A155" s="7">
+      <c r="A155" s="8">
         <v>159</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9">
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8">
         <v>5</v>
       </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="19"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" s="4" customFormat="1" spans="1:8">
-      <c r="A156" s="10">
+      <c r="A156" s="7">
         <v>160</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="20" t="s">
+      <c r="D156" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18" t="s">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H156" s="18"/>
+      <c r="H156" s="7"/>
     </row>
     <row r="157" s="4" customFormat="1" spans="1:8">
-      <c r="A157" s="10">
+      <c r="A157" s="8">
         <v>161</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21" t="s">
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G157" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="H157" s="21"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
       <c r="A158" s="7">
         <v>162</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7">
         <v>20</v>
       </c>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:8">
-      <c r="A159" s="10">
+      <c r="A159" s="8">
         <v>163</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21" t="s">
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G159" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="H159" s="21"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
       <c r="A160" s="7">
         <v>164</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D160" s="20" t="s">
+      <c r="D160" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F160" s="18" t="s">
+      <c r="F160" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G160" s="18" t="s">
+      <c r="G160" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H160" s="18"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
-      <c r="A161" s="10">
+      <c r="A161" s="8">
         <v>165</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F161" s="21" t="s">
+      <c r="F161" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G161" s="21" t="s">
+      <c r="G161" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H161" s="21"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
-      <c r="A162" s="10">
+      <c r="A162" s="7">
         <v>166</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D162" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F162" s="18" t="s">
+      <c r="F162" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H162" s="18"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" s="4" customFormat="1" spans="1:8">
-      <c r="A163" s="7">
+      <c r="A163" s="8">
         <v>167</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B163" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="D163" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21" t="s">
+      <c r="E163" s="8"/>
+      <c r="F163" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G163" s="21" t="s">
+      <c r="G163" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H163" s="21"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" s="4" customFormat="1" spans="1:8">
-      <c r="A164" s="10">
+      <c r="A164" s="7">
         <v>168</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7">
         <v>20</v>
       </c>
-      <c r="F164" s="18" t="s">
+      <c r="F164" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G164" s="18" t="s">
+      <c r="G164" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H164" s="18"/>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
-      <c r="A165" s="7">
+      <c r="A165" s="8">
         <v>169</v>
       </c>
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" s="4" customFormat="1" spans="1:8">
-      <c r="A166" s="10">
+      <c r="A166" s="7">
         <v>170</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7">
         <v>10</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F166" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G166" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="18"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" s="4" customFormat="1" spans="1:8">
-      <c r="A167" s="10">
+      <c r="A167" s="8">
         <v>171</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21" t="s">
+      <c r="E167" s="8"/>
+      <c r="F167" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G167" s="21" t="s">
+      <c r="G167" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H167" s="21"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:8">
       <c r="A168" s="7">
         <v>172</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7">
         <v>5</v>
       </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" s="4" customFormat="1" spans="1:8">
-      <c r="A169" s="10">
+      <c r="A169" s="8">
         <v>173</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11" t="s">
+      <c r="E169" s="8"/>
+      <c r="F169" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H169" s="11"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
       <c r="A170" s="7">
         <v>174</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7">
         <v>4</v>
       </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="9">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -1038,8 +1038,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -1068,6 +1068,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1075,21 +1082,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,7 +1090,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,7 +1121,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,22 +1151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1152,14 +1160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,30 +1176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,6 +1184,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1232,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,13 +1358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,133 +1376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,13 +1400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,41 +1465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,11 +1504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,6 +1524,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,7 +1565,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,115 +1583,85 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1700,13 +1670,43 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2149,8 +2149,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2284,7 +2284,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2388,7 +2388,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2426,7 +2426,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>39</v>
@@ -2464,7 +2464,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -3200,7 +3200,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -3272,7 +3272,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3308,7 +3308,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -3610,7 +3610,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -3682,7 +3682,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -3718,7 +3718,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -4096,7 +4096,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -4168,7 +4168,7 @@
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -4204,7 +4204,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -4280,7 +4280,7 @@
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -4352,7 +4352,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -4388,7 +4388,7 @@
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
@@ -4422,7 +4422,7 @@
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>12</v>
@@ -4460,7 +4460,7 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -4532,7 +4532,7 @@
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
@@ -4568,7 +4568,7 @@
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -4764,7 +4764,7 @@
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>12</v>
@@ -4802,7 +4802,7 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -4874,7 +4874,7 @@
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
@@ -4910,7 +4910,7 @@
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
@@ -5142,7 +5142,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
@@ -5302,7 +5302,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
@@ -5434,7 +5434,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>12</v>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -1039,8 +1039,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1074,6 +1074,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1082,30 +1083,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,38 +1091,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1160,7 +1106,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,15 +1129,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,8 +1142,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,8 +1196,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,13 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,13 +1256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1268,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,31 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,49 +1340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,25 +1400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,63 +1467,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,26 +1494,78 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,127 +1583,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2149,8 +2149,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3308,7 +3308,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_ViewIncomplete.xlsx
@@ -501,7 +501,7 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>COBRA</t>
   </si>
   <si>
     <t>Select Plan type</t>
@@ -1039,8 +1039,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1076,14 +1076,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,98 +1098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,8 +1119,99 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,13 +1232,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,19 +1316,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,19 +1346,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,109 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1468,25 +1474,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,11 +1506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,32 +1536,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,10 +1564,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,134 +1600,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1720,6 +1737,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2149,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3857,7 +3875,7 @@
       <c r="D83" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>156</v>
       </c>
       <c r="F83" s="8" t="s">
